--- a/data/outputs/management_elsevier/48.xlsx
+++ b/data/outputs/management_elsevier/48.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS20"/>
+  <dimension ref="A1:BU20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84947611245</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>8792</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84947575323</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2612</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1367,6 +1389,12 @@
           <t>2-s2.0-84947612905</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>3485</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1575,6 +1603,12 @@
         <is>
           <t>2-s2.0-84947618684</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>6923</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1757,6 +1791,12 @@
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1958,6 +1998,12 @@
           <t>2-s2.0-84933575859</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1956</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2167,6 +2213,12 @@
           <t>2-s2.0-84929430920</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>5616</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2381,6 +2433,12 @@
         <is>
           <t>2-s2.0-84930347256</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>2772</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -2591,6 +2649,12 @@
           <t>2-s2.0-84930074947</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>2253</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2817,6 +2881,12 @@
         <is>
           <t>2-s2.0-84930268151</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>13197</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -3023,6 +3093,12 @@
           <t>2-s2.0-84929710982</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>5035</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3236,6 +3312,12 @@
           <t>2-s2.0-84929712306</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>5095</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3445,6 +3527,12 @@
           <t>2-s2.0-84929707320</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>6873</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3671,6 +3759,12 @@
         <is>
           <t>2-s2.0-84929708858</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>8574</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -3873,6 +3967,12 @@
           <t>2-s2.0-84921907907</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1983</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4084,6 +4184,12 @@
           <t>2-s2.0-84921930459</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>5341</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4289,6 +4395,12 @@
           <t>2-s2.0-84921844000</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>3824</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4498,6 +4610,12 @@
           <t>2-s2.0-84921853008</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>6004</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4703,6 +4821,12 @@
           <t>2-s2.0-84922102817</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>4870</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
